--- a/biology/Médecine/Muscle_long_palmaire/Muscle_long_palmaire.xlsx
+++ b/biology/Médecine/Muscle_long_palmaire/Muscle_long_palmaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle long palmaire (ou muscle petit palmaire) est un long muscle grêle de l'avant-bras. Il est situé dans le plan superficiel de la loge antebrachiale antérieure. Il est inconstant : il peut ne pas être présent chez 15% des individus, et certains peuvent ne l'avoir que d'un seul côté[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle long palmaire (ou muscle petit palmaire) est un long muscle grêle de l'avant-bras. Il est situé dans le plan superficiel de la loge antebrachiale antérieure. Il est inconstant : il peut ne pas être présent chez 15% des individus, et certains peuvent ne l'avoir que d'un seul côté.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long palmaire prend son origine sur la face antérieure de l'épicondyle médial de l'humérus par l'intermédiaire du tendon commun des fléchisseurs, ainsi que sur le fascia antébrachial et sur les cloisons qui le séparent des muscles fléchisseurs radiaux et ulnaire du carpe.
 </t>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long palmaire chemine entre le muscle fléchisseur ulnaire du carpe médialement et le muscle fléchisseur radial du carpe latéralement.
 </t>
@@ -573,7 +589,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long palmaire se termine par un tendon qui s'insère sur la face palmaire du rétinaculum des fléchisseurs et envoie des fibres à l'aponévrose palmaire.
 </t>
@@ -604,7 +622,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long palmaire est innervé par le nerf du muscle long palmaire du nerf médian.
 </t>
@@ -635,7 +655,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long palmaire est fléchisseur de la main sur l'avant-bras.
 </t>
@@ -666,7 +688,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long palmaire sert souvent en transplant en chirurgie réparatrice tendineuse.
 </t>
